--- a/test_workbook/work3_test/work3-2-10/RefFile2.xlsx
+++ b/test_workbook/work3_test/work3-2-10/RefFile2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B758B846-A7AB-497D-B15A-6AEA8478B5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBDAA9D9-BE9B-47B7-A7F9-441FDE1A3284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A362511C-A5A6-47A8-8BD6-BD37DBD34970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C222C04F-E6D0-42CB-981E-9436418B1722}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,22 +41,22 @@
     <t>品目CD</t>
   </si>
   <si>
+    <t>内部名</t>
+  </si>
+  <si>
     <t>製造LT</t>
   </si>
   <si>
     <t>購入LT</t>
   </si>
   <si>
-    <t>内部名</t>
-  </si>
-  <si>
-    <t>オーダ比率</t>
-  </si>
-  <si>
-    <t>P0001</t>
-  </si>
-  <si>
-    <t>内製品</t>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t>Internal3</t>
   </si>
 </sst>
 </file>
@@ -439,44 +439,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5B564C-C5D1-4B24-B48C-AB13614130E8}">
-  <dimension ref="B2:BN3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38CB9F3-0191-44F8-9F3D-819C70341718}">
+  <dimension ref="B2:BM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:66" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:65" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="s">
         <v>4</v>
       </c>
-      <c r="BN2" t="s">
-        <v>3</v>
+      <c r="BM2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:66" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:65" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="O3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BM3" t="s">
         <v>6</v>
       </c>
     </row>
